--- a/storage/final_2.xlsx
+++ b/storage/final_2.xlsx
@@ -119,11 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -424,8 +425,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A118">
-      <selection activeCell="O133" sqref="O133"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A202">
+      <selection activeCell="L217" sqref="L217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4661,7 +4662,7 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>37500</v>
+        <v>37630</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -4691,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4702,7 +4703,7 @@
         <v>13</v>
       </c>
       <c r="C105">
-        <v>37000</v>
+        <v>37590</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -4732,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5798,6 +5799,3245 @@
         <v>1</v>
       </c>
       <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>35500</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132">
+        <v>37000</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G132">
+        <v>37250</v>
+      </c>
+      <c r="H132">
+        <v>37200</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>5</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>35500</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>37000</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G133">
+        <v>37600</v>
+      </c>
+      <c r="H133">
+        <v>37700</v>
+      </c>
+      <c r="I133">
+        <v>4</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>35500</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>38000</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G134">
+        <v>37600</v>
+      </c>
+      <c r="H134">
+        <v>37700</v>
+      </c>
+      <c r="I134">
+        <v>4</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>5</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>35500</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>38000</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G135">
+        <v>37600</v>
+      </c>
+      <c r="H135">
+        <v>37700</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>5</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>35500</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>38000</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G136">
+        <v>37000</v>
+      </c>
+      <c r="H136">
+        <v>38000</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>5</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>35500</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>38000</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G137">
+        <v>37000</v>
+      </c>
+      <c r="H137">
+        <v>38000</v>
+      </c>
+      <c r="I137">
+        <v>4</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <v>5</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>35500</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>38000</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G138">
+        <v>38000</v>
+      </c>
+      <c r="H138">
+        <v>37000</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>5</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>35500</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>38000</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G139">
+        <v>37640</v>
+      </c>
+      <c r="H139">
+        <v>37630</v>
+      </c>
+      <c r="I139">
+        <v>4</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>5</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>35500</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>38000</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G140">
+        <v>38000</v>
+      </c>
+      <c r="H140">
+        <v>37000</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>5</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>35500</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141">
+        <v>38000</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G141">
+        <v>38000</v>
+      </c>
+      <c r="H141">
+        <v>37000</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>5</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>35500</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>38000</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G142">
+        <v>38000</v>
+      </c>
+      <c r="H142">
+        <v>37000</v>
+      </c>
+      <c r="I142">
+        <v>4</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>5</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>38500</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143">
+        <v>38000</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G143">
+        <v>38000</v>
+      </c>
+      <c r="H143">
+        <v>37000</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>5</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>38500</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>38000</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G144">
+        <v>38000</v>
+      </c>
+      <c r="H144">
+        <v>37000</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>5</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>38500</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145">
+        <v>38000</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G145">
+        <v>37300</v>
+      </c>
+      <c r="H145">
+        <v>37400</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>5</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>38500</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>38000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G146">
+        <v>37300</v>
+      </c>
+      <c r="H146">
+        <v>37400</v>
+      </c>
+      <c r="I146">
+        <v>4</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>5</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>38500</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147">
+        <v>38000</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G147">
+        <v>37100</v>
+      </c>
+      <c r="H147">
+        <v>37800</v>
+      </c>
+      <c r="I147">
+        <v>4</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>5</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>38500</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>38000</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G148">
+        <v>37100</v>
+      </c>
+      <c r="H148">
+        <v>37800</v>
+      </c>
+      <c r="I148">
+        <v>4</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>5</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>38500</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149">
+        <v>38000</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G149">
+        <v>37100</v>
+      </c>
+      <c r="H149">
+        <v>37800</v>
+      </c>
+      <c r="I149">
+        <v>4</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>5</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>38500</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150">
+        <v>38000</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G150">
+        <v>37100</v>
+      </c>
+      <c r="H150">
+        <v>37800</v>
+      </c>
+      <c r="I150">
+        <v>4</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>5</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>38500</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151">
+        <v>38000</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G151">
+        <v>37100</v>
+      </c>
+      <c r="H151">
+        <v>37800</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>5</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>38500</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>38000</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G152">
+        <v>37100</v>
+      </c>
+      <c r="H152">
+        <v>37800</v>
+      </c>
+      <c r="I152">
+        <v>4</v>
+      </c>
+      <c r="J152">
+        <v>2</v>
+      </c>
+      <c r="K152">
+        <v>5</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>38500</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>38000</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G153">
+        <v>37100</v>
+      </c>
+      <c r="H153">
+        <v>37800</v>
+      </c>
+      <c r="I153">
+        <v>4</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>5</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>38500</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>38000</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G154">
+        <v>37100</v>
+      </c>
+      <c r="H154">
+        <v>37800</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+      <c r="K154">
+        <v>5</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>38500</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>38000</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G155">
+        <v>37100</v>
+      </c>
+      <c r="H155">
+        <v>37800</v>
+      </c>
+      <c r="I155">
+        <v>4</v>
+      </c>
+      <c r="J155">
+        <v>2</v>
+      </c>
+      <c r="K155">
+        <v>5</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>38500</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>38000</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G156">
+        <v>37100</v>
+      </c>
+      <c r="H156">
+        <v>37800</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>5</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>38000</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>38000</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G157" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>5</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>38000</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>37000</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G158" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158">
+        <v>4</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>35500</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>38000</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G159">
+        <v>37100</v>
+      </c>
+      <c r="H159">
+        <v>37800</v>
+      </c>
+      <c r="I159">
+        <v>4</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>5</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>38500</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>38000</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G160">
+        <v>37540</v>
+      </c>
+      <c r="H160">
+        <v>37500</v>
+      </c>
+      <c r="I160">
+        <v>4</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>5</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>38500</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>38000</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G161">
+        <v>37540</v>
+      </c>
+      <c r="H161">
+        <v>37500</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>5</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>35500</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>38000</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G162">
+        <v>37540</v>
+      </c>
+      <c r="H162">
+        <v>37500</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <v>5</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>35500</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>38000</v>
+      </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G163">
+        <v>37540</v>
+      </c>
+      <c r="H163">
+        <v>37500</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>5</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>35500</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164">
+        <v>38000</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G164">
+        <v>37540</v>
+      </c>
+      <c r="H164">
+        <v>37500</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164">
+        <v>5</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>35500</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165">
+        <v>38000</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G165">
+        <v>38000</v>
+      </c>
+      <c r="H165">
+        <v>37000</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>5</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>35500</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>38000</v>
+      </c>
+      <c r="D166" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G166">
+        <v>38000</v>
+      </c>
+      <c r="H166">
+        <v>37000</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>5</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>35500</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>38000</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G167">
+        <v>38000</v>
+      </c>
+      <c r="H167">
+        <v>37000</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>5</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>35500</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>38000</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G168">
+        <v>38000</v>
+      </c>
+      <c r="H168">
+        <v>37000</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168">
+        <v>5</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>38500</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>38000</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G169">
+        <v>38000</v>
+      </c>
+      <c r="H169">
+        <v>37000</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>5</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>38500</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>38000</v>
+      </c>
+      <c r="D170" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G170">
+        <v>38000</v>
+      </c>
+      <c r="H170">
+        <v>37000</v>
+      </c>
+      <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170">
+        <v>5</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>35500</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>38000</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G171">
+        <v>38000</v>
+      </c>
+      <c r="H171">
+        <v>37000</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+      <c r="J171">
+        <v>2</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>35500</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172">
+        <v>37000</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G172">
+        <v>38000</v>
+      </c>
+      <c r="H172">
+        <v>37000</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172">
+        <v>2</v>
+      </c>
+      <c r="K172">
+        <v>5</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>35500</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>37000</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G173">
+        <v>37630</v>
+      </c>
+      <c r="H173">
+        <v>37600</v>
+      </c>
+      <c r="I173">
+        <v>4</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>5</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>35500</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>37000</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G174">
+        <v>37670</v>
+      </c>
+      <c r="H174">
+        <v>37600</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+      <c r="K174">
+        <v>5</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>38500</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>37000</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G175">
+        <v>37670</v>
+      </c>
+      <c r="H175">
+        <v>37600</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>5</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>35500</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176">
+        <v>37000</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G176">
+        <v>37640</v>
+      </c>
+      <c r="H176">
+        <v>37620</v>
+      </c>
+      <c r="I176">
+        <v>4</v>
+      </c>
+      <c r="J176">
+        <v>2</v>
+      </c>
+      <c r="K176">
+        <v>5</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>35500</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177">
+        <v>37000</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G177">
+        <v>37640</v>
+      </c>
+      <c r="H177">
+        <v>37620</v>
+      </c>
+      <c r="I177">
+        <v>4</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177">
+        <v>5</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>35500</v>
+      </c>
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178">
+        <v>37000</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G178">
+        <v>37640</v>
+      </c>
+      <c r="H178">
+        <v>37620</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+      <c r="K178">
+        <v>5</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>35500</v>
+      </c>
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179">
+        <v>37000</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G179">
+        <v>37640</v>
+      </c>
+      <c r="H179">
+        <v>37620</v>
+      </c>
+      <c r="I179">
+        <v>4</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>5</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>35500</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180">
+        <v>37000</v>
+      </c>
+      <c r="D180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G180">
+        <v>37640</v>
+      </c>
+      <c r="H180">
+        <v>37620</v>
+      </c>
+      <c r="I180">
+        <v>4</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="K180">
+        <v>5</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>35500</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181">
+        <v>37000</v>
+      </c>
+      <c r="D181" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G181">
+        <v>37640</v>
+      </c>
+      <c r="H181">
+        <v>37620</v>
+      </c>
+      <c r="I181">
+        <v>4</v>
+      </c>
+      <c r="J181">
+        <v>2</v>
+      </c>
+      <c r="K181">
+        <v>5</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>35500</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>37000</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G182">
+        <v>37880</v>
+      </c>
+      <c r="H182">
+        <v>37620</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>5</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>35500</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>37000</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G183">
+        <v>37880</v>
+      </c>
+      <c r="H183">
+        <v>37620</v>
+      </c>
+      <c r="I183">
+        <v>4</v>
+      </c>
+      <c r="J183">
+        <v>2</v>
+      </c>
+      <c r="K183">
+        <v>5</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>35500</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>37000</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G184">
+        <v>37880</v>
+      </c>
+      <c r="H184">
+        <v>37620</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>5</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>35500</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185">
+        <v>37000</v>
+      </c>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G185">
+        <v>37880</v>
+      </c>
+      <c r="H185">
+        <v>37620</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+      <c r="K185">
+        <v>5</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>35500</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <v>37000</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G186">
+        <v>37880</v>
+      </c>
+      <c r="H186">
+        <v>37620</v>
+      </c>
+      <c r="I186">
+        <v>4</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>5</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>35500</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>37000</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G187">
+        <v>37680</v>
+      </c>
+      <c r="H187">
+        <v>37640</v>
+      </c>
+      <c r="I187">
+        <v>4</v>
+      </c>
+      <c r="J187">
+        <v>2</v>
+      </c>
+      <c r="K187">
+        <v>5</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>38500</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188">
+        <v>37000</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G188">
+        <v>37690</v>
+      </c>
+      <c r="H188">
+        <v>37720</v>
+      </c>
+      <c r="I188">
+        <v>4</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>5</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>38500</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189">
+        <v>37000</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G189">
+        <v>37690</v>
+      </c>
+      <c r="H189">
+        <v>37720</v>
+      </c>
+      <c r="I189">
+        <v>4</v>
+      </c>
+      <c r="J189">
+        <v>2</v>
+      </c>
+      <c r="K189">
+        <v>5</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>38500</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190">
+        <v>37000</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G190">
+        <v>37695</v>
+      </c>
+      <c r="H190">
+        <v>37700</v>
+      </c>
+      <c r="I190">
+        <v>4</v>
+      </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+      <c r="K190">
+        <v>5</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>35500</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191">
+        <v>37000</v>
+      </c>
+      <c r="D191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G191">
+        <v>38000</v>
+      </c>
+      <c r="H191">
+        <v>37000</v>
+      </c>
+      <c r="I191">
+        <v>4</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>5</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>35500</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>37000</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G192">
+        <v>38000</v>
+      </c>
+      <c r="H192">
+        <v>37000</v>
+      </c>
+      <c r="I192">
+        <v>4</v>
+      </c>
+      <c r="J192">
+        <v>2</v>
+      </c>
+      <c r="K192">
+        <v>5</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>35500</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193">
+        <v>37000</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G193">
+        <v>38000</v>
+      </c>
+      <c r="H193">
+        <v>37000</v>
+      </c>
+      <c r="I193">
+        <v>4</v>
+      </c>
+      <c r="J193">
+        <v>2</v>
+      </c>
+      <c r="K193">
+        <v>5</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>35500</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194">
+        <v>37000</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G194">
+        <v>38000</v>
+      </c>
+      <c r="H194">
+        <v>37000</v>
+      </c>
+      <c r="I194">
+        <v>4</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194">
+        <v>5</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>35500</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195">
+        <v>37000</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G195">
+        <v>38000</v>
+      </c>
+      <c r="H195">
+        <v>37000</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>5</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>35500</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>37000</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G196">
+        <v>38000</v>
+      </c>
+      <c r="H196">
+        <v>37000</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+      <c r="K196">
+        <v>5</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>35500</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <v>37000</v>
+      </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G197">
+        <v>38000</v>
+      </c>
+      <c r="H197">
+        <v>37000</v>
+      </c>
+      <c r="I197">
+        <v>4</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197">
+        <v>5</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>38500</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198">
+        <v>37000</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G198">
+        <v>37000</v>
+      </c>
+      <c r="H198">
+        <v>38000</v>
+      </c>
+      <c r="I198">
+        <v>4</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>5</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>38500</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199">
+        <v>37000</v>
+      </c>
+      <c r="D199" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G199">
+        <v>37000</v>
+      </c>
+      <c r="H199">
+        <v>38000</v>
+      </c>
+      <c r="I199">
+        <v>4</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
+        <v>5</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>35500</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200">
+        <v>37000</v>
+      </c>
+      <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G200">
+        <v>37000</v>
+      </c>
+      <c r="H200">
+        <v>38000</v>
+      </c>
+      <c r="I200">
+        <v>4</v>
+      </c>
+      <c r="J200">
+        <v>2</v>
+      </c>
+      <c r="K200">
+        <v>5</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>35500</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <v>37000</v>
+      </c>
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G201">
+        <v>37000</v>
+      </c>
+      <c r="H201">
+        <v>38000</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+      <c r="K201">
+        <v>5</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>35500</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <v>37000</v>
+      </c>
+      <c r="D202" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G202">
+        <v>37020</v>
+      </c>
+      <c r="H202">
+        <v>36970</v>
+      </c>
+      <c r="I202">
+        <v>4</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202">
+        <v>5</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>35500</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <v>37000</v>
+      </c>
+      <c r="D203" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="2">
+        <v>45934.229699074072</v>
+      </c>
+      <c r="G203">
+        <v>39000</v>
+      </c>
+      <c r="H203">
+        <v>36000</v>
+      </c>
+      <c r="I203">
+        <v>4</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203">
+        <v>5</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>35500</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204">
+        <v>38000</v>
+      </c>
+      <c r="D204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" s="2">
+        <v>45874.229699074072</v>
+      </c>
+      <c r="G204">
+        <v>39000</v>
+      </c>
+      <c r="H204">
+        <v>36000</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+      <c r="J204">
+        <v>2</v>
+      </c>
+      <c r="K204">
+        <v>5</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>35500</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205">
+        <v>37000</v>
+      </c>
+      <c r="D205" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" s="2">
+        <v>45874.229699074072</v>
+      </c>
+      <c r="G205">
+        <v>39000</v>
+      </c>
+      <c r="H205">
+        <v>36000</v>
+      </c>
+      <c r="I205">
+        <v>4</v>
+      </c>
+      <c r="J205">
+        <v>2</v>
+      </c>
+      <c r="K205">
+        <v>5</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>35500</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>37000</v>
+      </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206" s="2">
+        <v>45874.229699074072</v>
+      </c>
+      <c r="G206">
+        <v>39000</v>
+      </c>
+      <c r="H206">
+        <v>36000</v>
+      </c>
+      <c r="I206">
+        <v>4</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+      <c r="K206">
+        <v>5</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>38500</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>37000</v>
+      </c>
+      <c r="D207" t="s">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207" s="2">
+        <v>45874.229699074072</v>
+      </c>
+      <c r="G207">
+        <v>39000</v>
+      </c>
+      <c r="H207">
+        <v>36000</v>
+      </c>
+      <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207">
+        <v>2</v>
+      </c>
+      <c r="K207">
+        <v>5</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>35500</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208">
+        <v>37000</v>
+      </c>
+      <c r="D208" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" s="3">
+        <v>45874.229699074072</v>
+      </c>
+      <c r="G208">
+        <v>39000</v>
+      </c>
+      <c r="H208">
+        <v>36000</v>
+      </c>
+      <c r="I208">
+        <v>4</v>
+      </c>
+      <c r="J208">
+        <v>2</v>
+      </c>
+      <c r="K208">
+        <v>5</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>38500</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209">
+        <v>37000</v>
+      </c>
+      <c r="D209" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209" s="3">
+        <v>45874.229699074072</v>
+      </c>
+      <c r="G209">
+        <v>36000</v>
+      </c>
+      <c r="H209">
+        <v>39000</v>
+      </c>
+      <c r="I209">
+        <v>4</v>
+      </c>
+      <c r="J209">
+        <v>2</v>
+      </c>
+      <c r="K209">
+        <v>5</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>38500</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210">
+        <v>37000</v>
+      </c>
+      <c r="D210" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" s="3">
+        <v>45874.229699074072</v>
+      </c>
+      <c r="G210">
+        <v>36000</v>
+      </c>
+      <c r="H210">
+        <v>39000</v>
+      </c>
+      <c r="I210">
+        <v>4</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+      <c r="K210">
+        <v>5</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
         <v>0</v>
       </c>
     </row>
